--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Edn3-Ednrb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Edn3-Ednrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ednrb</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.012975</v>
+        <v>0.1264883333333333</v>
       </c>
       <c r="H2">
-        <v>0.038925</v>
+        <v>0.379465</v>
       </c>
       <c r="I2">
-        <v>0.004878150260562778</v>
+        <v>0.02088586470611676</v>
       </c>
       <c r="J2">
-        <v>0.004878150260562778</v>
+        <v>0.02088586470611676</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>70.24576333333333</v>
+        <v>36.27867833333334</v>
       </c>
       <c r="N2">
-        <v>210.73729</v>
+        <v>108.836035</v>
       </c>
       <c r="O2">
-        <v>0.8038202726758663</v>
+        <v>0.6141201546381995</v>
       </c>
       <c r="P2">
-        <v>0.8038202726758663</v>
+        <v>0.6141201546381995</v>
       </c>
       <c r="Q2">
-        <v>0.9114387792499999</v>
+        <v>4.588829557919445</v>
       </c>
       <c r="R2">
-        <v>8.20294901325</v>
+        <v>41.299466021275</v>
       </c>
       <c r="S2">
-        <v>0.003921156072599421</v>
+        <v>0.01282643046307294</v>
       </c>
       <c r="T2">
-        <v>0.003921156072599421</v>
+        <v>0.01282643046307294</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.012975</v>
+        <v>0.1264883333333333</v>
       </c>
       <c r="H3">
-        <v>0.038925</v>
+        <v>0.379465</v>
       </c>
       <c r="I3">
-        <v>0.004878150260562778</v>
+        <v>0.02088586470611676</v>
       </c>
       <c r="J3">
-        <v>0.004878150260562778</v>
+        <v>0.02088586470611676</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.457167</v>
       </c>
       <c r="O3">
-        <v>0.001743782994449667</v>
+        <v>0.002579618678092064</v>
       </c>
       <c r="P3">
-        <v>0.001743782994449667</v>
+        <v>0.002579618678092065</v>
       </c>
       <c r="Q3">
-        <v>0.001977247275</v>
+        <v>0.01927543062833333</v>
       </c>
       <c r="R3">
-        <v>0.017795225475</v>
+        <v>0.173478875655</v>
       </c>
       <c r="S3">
-        <v>8.506435468739582E-06</v>
+        <v>5.387756670400262E-05</v>
       </c>
       <c r="T3">
-        <v>8.506435468739582E-06</v>
+        <v>5.387756670400263E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.012975</v>
+        <v>0.1264883333333333</v>
       </c>
       <c r="H4">
-        <v>0.038925</v>
+        <v>0.379465</v>
       </c>
       <c r="I4">
-        <v>0.004878150260562778</v>
+        <v>0.02088586470611676</v>
       </c>
       <c r="J4">
-        <v>0.004878150260562778</v>
+        <v>0.02088586470611676</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.90423533333333</v>
+        <v>20.63960233333333</v>
       </c>
       <c r="N4">
-        <v>41.712706</v>
+        <v>61.918807</v>
       </c>
       <c r="O4">
-        <v>0.1591057696099644</v>
+        <v>0.3493841660976791</v>
       </c>
       <c r="P4">
-        <v>0.1591057696099644</v>
+        <v>0.3493841660976791</v>
       </c>
       <c r="Q4">
-        <v>0.18040745345</v>
+        <v>2.610668899806111</v>
       </c>
       <c r="R4">
-        <v>1.62366708105</v>
+        <v>23.496020098255</v>
       </c>
       <c r="S4">
-        <v>0.000776141851479889</v>
+        <v>0.007297190423575553</v>
       </c>
       <c r="T4">
-        <v>0.000776141851479889</v>
+        <v>0.007297190423575553</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.012975</v>
+        <v>0.1264883333333333</v>
       </c>
       <c r="H5">
-        <v>0.038925</v>
+        <v>0.379465</v>
       </c>
       <c r="I5">
-        <v>0.004878150260562778</v>
+        <v>0.02088586470611676</v>
       </c>
       <c r="J5">
-        <v>0.004878150260562778</v>
+        <v>0.02088586470611676</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.0875</v>
+        <v>2.003565333333333</v>
       </c>
       <c r="N5">
-        <v>9.262499999999999</v>
+        <v>6.010696</v>
       </c>
       <c r="O5">
-        <v>0.03533017471971957</v>
+        <v>0.03391606058602931</v>
       </c>
       <c r="P5">
-        <v>0.03533017471971957</v>
+        <v>0.03391606058602931</v>
       </c>
       <c r="Q5">
-        <v>0.0400603125</v>
+        <v>0.2534276397377778</v>
       </c>
       <c r="R5">
-        <v>0.3605428125</v>
+        <v>2.28084875764</v>
       </c>
       <c r="S5">
-        <v>0.0001723459010147285</v>
+        <v>0.0007083662527642672</v>
       </c>
       <c r="T5">
-        <v>0.0001723459010147285</v>
+        <v>0.0007083662527642673</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.646844666666667</v>
+        <v>0.012975</v>
       </c>
       <c r="H6">
-        <v>7.940534</v>
+        <v>0.038925</v>
       </c>
       <c r="I6">
-        <v>0.9951218497394373</v>
+        <v>0.002142443397113291</v>
       </c>
       <c r="J6">
-        <v>0.9951218497394373</v>
+        <v>0.002142443397113291</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>70.24576333333333</v>
+        <v>36.27867833333334</v>
       </c>
       <c r="N6">
-        <v>210.73729</v>
+        <v>108.836035</v>
       </c>
       <c r="O6">
-        <v>0.8038202726758663</v>
+        <v>0.6141201546381995</v>
       </c>
       <c r="P6">
-        <v>0.8038202726758663</v>
+        <v>0.6141201546381995</v>
       </c>
       <c r="Q6">
-        <v>185.9296240347622</v>
+        <v>0.4707158513750001</v>
       </c>
       <c r="R6">
-        <v>1673.36661631286</v>
+        <v>4.236442662375</v>
       </c>
       <c r="S6">
-        <v>0.799899116603267</v>
+        <v>0.001315717670338803</v>
       </c>
       <c r="T6">
-        <v>0.799899116603267</v>
+        <v>0.001315717670338804</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>2.646844666666667</v>
+        <v>0.012975</v>
       </c>
       <c r="H7">
-        <v>7.940534</v>
+        <v>0.038925</v>
       </c>
       <c r="I7">
-        <v>0.9951218497394373</v>
+        <v>0.002142443397113291</v>
       </c>
       <c r="J7">
-        <v>0.9951218497394373</v>
+        <v>0.002142443397113291</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,22 +871,22 @@
         <v>0.457167</v>
       </c>
       <c r="O7">
-        <v>0.001743782994449667</v>
+        <v>0.002579618678092064</v>
       </c>
       <c r="P7">
-        <v>0.001743782994449667</v>
+        <v>0.002579618678092065</v>
       </c>
       <c r="Q7">
-        <v>0.4033500119086667</v>
+        <v>0.001977247275</v>
       </c>
       <c r="R7">
-        <v>3.630150107178</v>
+        <v>0.017795225475</v>
       </c>
       <c r="S7">
-        <v>0.001735276558980927</v>
+        <v>5.526687003948459E-06</v>
       </c>
       <c r="T7">
-        <v>0.001735276558980927</v>
+        <v>5.52668700394846E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>2.646844666666667</v>
+        <v>0.012975</v>
       </c>
       <c r="H8">
-        <v>7.940534</v>
+        <v>0.038925</v>
       </c>
       <c r="I8">
-        <v>0.9951218497394373</v>
+        <v>0.002142443397113291</v>
       </c>
       <c r="J8">
-        <v>0.9951218497394373</v>
+        <v>0.002142443397113291</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.90423533333333</v>
+        <v>20.63960233333333</v>
       </c>
       <c r="N8">
-        <v>41.712706</v>
+        <v>61.918807</v>
       </c>
       <c r="O8">
-        <v>0.1591057696099644</v>
+        <v>0.3493841660976791</v>
       </c>
       <c r="P8">
-        <v>0.1591057696099644</v>
+        <v>0.3493841660976791</v>
       </c>
       <c r="Q8">
-        <v>36.80235113611155</v>
+        <v>0.267798840275</v>
       </c>
       <c r="R8">
-        <v>331.221160225004</v>
+        <v>2.410189562475</v>
       </c>
       <c r="S8">
-        <v>0.1583296277584845</v>
+        <v>0.0007485357997119059</v>
       </c>
       <c r="T8">
-        <v>0.1583296277584845</v>
+        <v>0.000748535799711906</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>2.646844666666667</v>
+        <v>0.012975</v>
       </c>
       <c r="H9">
-        <v>7.940534</v>
+        <v>0.038925</v>
       </c>
       <c r="I9">
-        <v>0.9951218497394373</v>
+        <v>0.002142443397113291</v>
       </c>
       <c r="J9">
-        <v>0.9951218497394373</v>
+        <v>0.002142443397113291</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,276 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.0875</v>
+        <v>2.003565333333333</v>
       </c>
       <c r="N9">
-        <v>9.262499999999999</v>
+        <v>6.010696</v>
       </c>
       <c r="O9">
-        <v>0.03533017471971957</v>
+        <v>0.03391606058602931</v>
       </c>
       <c r="P9">
-        <v>0.03533017471971957</v>
+        <v>0.03391606058602931</v>
       </c>
       <c r="Q9">
-        <v>8.172132908333333</v>
+        <v>0.0259962602</v>
       </c>
       <c r="R9">
-        <v>73.54919617499999</v>
+        <v>0.2339663418</v>
       </c>
       <c r="S9">
-        <v>0.03515782881870485</v>
+        <v>7.266324005863281E-05</v>
       </c>
       <c r="T9">
-        <v>0.03515782881870484</v>
+        <v>7.266324005863284E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.916706</v>
+      </c>
+      <c r="H10">
+        <v>17.750118</v>
+      </c>
+      <c r="I10">
+        <v>0.9769716918967699</v>
+      </c>
+      <c r="J10">
+        <v>0.97697169189677</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>36.27867833333334</v>
+      </c>
+      <c r="N10">
+        <v>108.836035</v>
+      </c>
+      <c r="O10">
+        <v>0.6141201546381995</v>
+      </c>
+      <c r="P10">
+        <v>0.6141201546381995</v>
+      </c>
+      <c r="Q10">
+        <v>214.6502737669034</v>
+      </c>
+      <c r="R10">
+        <v>1931.85246390213</v>
+      </c>
+      <c r="S10">
+        <v>0.5999780065047877</v>
+      </c>
+      <c r="T10">
+        <v>0.5999780065047877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.916706</v>
+      </c>
+      <c r="H11">
+        <v>17.750118</v>
+      </c>
+      <c r="I11">
+        <v>0.9769716918967699</v>
+      </c>
+      <c r="J11">
+        <v>0.97697169189677</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.152389</v>
+      </c>
+      <c r="N11">
+        <v>0.457167</v>
+      </c>
+      <c r="O11">
+        <v>0.002579618678092064</v>
+      </c>
+      <c r="P11">
+        <v>0.002579618678092065</v>
+      </c>
+      <c r="Q11">
+        <v>0.9016409106340001</v>
+      </c>
+      <c r="R11">
+        <v>8.114768195706</v>
+      </c>
+      <c r="S11">
+        <v>0.002520214424384113</v>
+      </c>
+      <c r="T11">
+        <v>0.002520214424384114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>5.916706</v>
+      </c>
+      <c r="H12">
+        <v>17.750118</v>
+      </c>
+      <c r="I12">
+        <v>0.9769716918967699</v>
+      </c>
+      <c r="J12">
+        <v>0.97697169189677</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>20.63960233333333</v>
+      </c>
+      <c r="N12">
+        <v>61.918807</v>
+      </c>
+      <c r="O12">
+        <v>0.3493841660976791</v>
+      </c>
+      <c r="P12">
+        <v>0.3493841660976791</v>
+      </c>
+      <c r="Q12">
+        <v>122.1184589632473</v>
+      </c>
+      <c r="R12">
+        <v>1099.066130669226</v>
+      </c>
+      <c r="S12">
+        <v>0.3413384398743917</v>
+      </c>
+      <c r="T12">
+        <v>0.3413384398743917</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>5.916706</v>
+      </c>
+      <c r="H13">
+        <v>17.750118</v>
+      </c>
+      <c r="I13">
+        <v>0.9769716918967699</v>
+      </c>
+      <c r="J13">
+        <v>0.97697169189677</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.003565333333333</v>
+      </c>
+      <c r="N13">
+        <v>6.010696</v>
+      </c>
+      <c r="O13">
+        <v>0.03391606058602931</v>
+      </c>
+      <c r="P13">
+        <v>0.03391606058602931</v>
+      </c>
+      <c r="Q13">
+        <v>11.85450702912533</v>
+      </c>
+      <c r="R13">
+        <v>106.690563262128</v>
+      </c>
+      <c r="S13">
+        <v>0.0331350310932064</v>
+      </c>
+      <c r="T13">
+        <v>0.03313503109320642</v>
       </c>
     </row>
   </sheetData>
